--- a/bin/AutoGherkinGenerator/BDD 4 Java_1.xlsx
+++ b/bin/AutoGherkinGenerator/BDD 4 Java_1.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkavir\eclipse-workspace\FilloMethod\src\test\java\prefixData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakashp\Downloads\GherkinGenerator\src\AutoGherkinGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView windowHeight="7665" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Shares" sheetId="1" r:id="rId1"/>
+    <sheet name="Shares" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shares!$A$1:$U$84</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Shares!$A$1:$U$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="224">
   <si>
     <t>TC_01</t>
   </si>
@@ -447,12 +447,1475 @@
   </si>
   <si>
     <t>TC_010</t>
+  </si>
+  <si>
+    <t>ExpectedScenario</t>
+  </si>
+  <si>
+    <t>Given Login is User Name : Amaze Password : Password123
+And AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Pre Session
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Close
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Post close
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Close
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Post close
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Post close
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Pre Session
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Close
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Post close
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Close
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Post close
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Post close
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Week
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Pre Session
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good till Day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Close
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Post close
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Month
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Close
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Post close
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Post close
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Pre Session
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Stop Loss
+And LimitType is Good Till Year
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Future
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Future
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Market
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Inactive
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Market
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And PostingRestriction is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Closed
+And PortfolioCreated is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Inactive
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Active
+And PortfolioCreated is Yes
+And PostingRestriction is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>Given AccountStatus is Closed
+And PortfolioCreated is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Sell Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is NA
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And Commit&amp;validate should be Clicked
+And Accountingentries should be Checked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,40 +2016,43 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="18" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="18" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,10 +2069,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -641,7 +2107,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -676,7 +2142,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -770,21 +2236,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -801,7 +2267,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -853,23 +2319,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O78" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -933,8 +2399,11 @@
       <c r="U1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V1" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row ht="76.5" r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,12 +2419,12 @@
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2"/>
       <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,12 +2461,15 @@
       <c r="U2" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row ht="51" r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1007,7 +2479,7 @@
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3"/>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1053,12 +2525,15 @@
       <c r="U3" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row ht="38.25" r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +2543,7 @@
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4"/>
       <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1102,16 +2577,19 @@
       <c r="Q4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row ht="38.25" r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +2599,7 @@
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5"/>
       <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1155,16 +2633,19 @@
       <c r="Q5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row ht="76.5" r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1174,12 +2655,12 @@
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6"/>
       <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1216,12 +2697,15 @@
       <c r="U6" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row ht="51" r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +2715,7 @@
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7"/>
       <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1277,12 +2761,15 @@
       <c r="U7" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row ht="38.25" r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +2779,7 @@
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8"/>
       <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1326,16 +2813,19 @@
       <c r="Q8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row ht="38.25" r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +2835,7 @@
       <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9"/>
       <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1379,16 +2869,19 @@
       <c r="Q9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row ht="76.5" r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1398,12 +2891,12 @@
       <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10"/>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,12 +2933,15 @@
       <c r="U10" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row ht="51" r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11"/>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +2951,7 @@
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11"/>
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1501,12 +2997,15 @@
       <c r="U11" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row ht="38.25" r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12"/>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +3015,7 @@
       <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12"/>
       <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1550,16 +3049,19 @@
       <c r="Q12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row ht="38.25" r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13"/>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +3071,7 @@
       <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13"/>
       <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1603,16 +3105,19 @@
       <c r="Q13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row ht="76.5" r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1622,12 +3127,12 @@
       <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14"/>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1664,12 +3169,15 @@
       <c r="U14" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row ht="51" r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +3187,7 @@
       <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15"/>
       <c r="G15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1725,12 +3233,15 @@
       <c r="U15" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row ht="38.25" r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16"/>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +3251,7 @@
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16"/>
       <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1774,16 +3285,19 @@
       <c r="Q16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row ht="38.25" r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17"/>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1793,7 +3307,7 @@
       <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17"/>
       <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1827,16 +3341,19 @@
       <c r="Q17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row ht="76.5" r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18"/>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1846,12 +3363,12 @@
       <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18"/>
+      <c r="G18"/>
       <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18"/>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1888,12 +3405,15 @@
       <c r="U18" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row ht="51" r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +3423,7 @@
       <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19"/>
       <c r="G19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1949,12 +3469,15 @@
       <c r="U19" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="38.25" r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20"/>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1964,7 +3487,7 @@
       <c r="E20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20"/>
       <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
@@ -1998,16 +3521,19 @@
       <c r="Q20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="38.25" r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21"/>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +3543,7 @@
       <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21"/>
       <c r="G21" s="3" t="s">
         <v>32</v>
       </c>
@@ -2051,16 +3577,19 @@
       <c r="Q21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row ht="76.5" r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22"/>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
@@ -2070,12 +3599,12 @@
       <c r="E22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22"/>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -2112,12 +3641,15 @@
       <c r="U22" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row ht="51" r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23"/>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
@@ -2127,7 +3659,7 @@
       <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23"/>
       <c r="G23" s="3" t="s">
         <v>32</v>
       </c>
@@ -2173,12 +3705,15 @@
       <c r="U23" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row ht="38.25" r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24"/>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +3723,7 @@
       <c r="E24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24"/>
       <c r="G24" s="3" t="s">
         <v>32</v>
       </c>
@@ -2222,16 +3757,19 @@
       <c r="Q24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row ht="38.25" r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25"/>
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +3779,7 @@
       <c r="E25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25"/>
       <c r="G25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2275,16 +3813,19 @@
       <c r="Q25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row ht="76.5" r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26"/>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
@@ -2294,12 +3835,12 @@
       <c r="E26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26"/>
+      <c r="G26"/>
       <c r="H26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26"/>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2336,12 +3877,15 @@
       <c r="U26" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row ht="51" r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27"/>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +3895,7 @@
       <c r="E27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27"/>
       <c r="G27" s="3" t="s">
         <v>32</v>
       </c>
@@ -2397,12 +3941,15 @@
       <c r="U27" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row ht="38.25" r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28"/>
       <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +3959,7 @@
       <c r="E28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28"/>
       <c r="G28" s="3" t="s">
         <v>32</v>
       </c>
@@ -2446,16 +3993,19 @@
       <c r="Q28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row ht="38.25" r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29"/>
       <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
@@ -2465,7 +4015,7 @@
       <c r="E29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29"/>
       <c r="G29" s="3" t="s">
         <v>32</v>
       </c>
@@ -2499,16 +4049,19 @@
       <c r="Q29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row ht="76.5" r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30"/>
       <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
@@ -2518,12 +4071,12 @@
       <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30"/>
+      <c r="G30"/>
       <c r="H30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30"/>
       <c r="J30" s="3" t="s">
         <v>4</v>
       </c>
@@ -2560,12 +4113,15 @@
       <c r="U30" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="51" r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31"/>
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +4131,7 @@
       <c r="E31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31"/>
       <c r="G31" s="3" t="s">
         <v>32</v>
       </c>
@@ -2621,12 +4177,15 @@
       <c r="U31" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row ht="38.25" r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32"/>
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +4195,7 @@
       <c r="E32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32"/>
       <c r="G32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2670,16 +4229,19 @@
       <c r="Q32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row ht="38.25" r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33"/>
       <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +4251,7 @@
       <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33"/>
       <c r="G33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2723,16 +4285,19 @@
       <c r="Q33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row ht="76.5" r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34"/>
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
@@ -2742,12 +4307,12 @@
       <c r="E34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="F34"/>
+      <c r="G34"/>
       <c r="H34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34"/>
       <c r="J34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2784,12 +4349,15 @@
       <c r="U34" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row ht="51" r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35"/>
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +4367,7 @@
       <c r="E35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35"/>
       <c r="G35" s="3" t="s">
         <v>32</v>
       </c>
@@ -2845,12 +4413,15 @@
       <c r="U35" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row ht="38.25" r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2860,7 +4431,7 @@
       <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36"/>
       <c r="G36" s="3" t="s">
         <v>32</v>
       </c>
@@ -2894,16 +4465,19 @@
       <c r="Q36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row ht="38.25" r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37"/>
       <c r="C37" s="3" t="s">
         <v>9</v>
       </c>
@@ -2913,7 +4487,7 @@
       <c r="E37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37"/>
       <c r="G37" s="3" t="s">
         <v>32</v>
       </c>
@@ -2947,16 +4521,19 @@
       <c r="Q37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row ht="76.5" r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38"/>
       <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
@@ -2966,12 +4543,12 @@
       <c r="E38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="F38"/>
+      <c r="G38"/>
       <c r="H38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38"/>
       <c r="J38" s="3" t="s">
         <v>4</v>
       </c>
@@ -3008,12 +4585,15 @@
       <c r="U38" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row ht="51" r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39"/>
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +4603,7 @@
       <c r="E39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39"/>
       <c r="G39" s="3" t="s">
         <v>32</v>
       </c>
@@ -3069,12 +4649,15 @@
       <c r="U39" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row ht="38.25" r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40"/>
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
@@ -3084,7 +4667,7 @@
       <c r="E40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40"/>
       <c r="G40" s="3" t="s">
         <v>32</v>
       </c>
@@ -3118,16 +4701,19 @@
       <c r="Q40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row ht="38.25" r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41"/>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
@@ -3137,7 +4723,7 @@
       <c r="E41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41"/>
       <c r="G41" s="3" t="s">
         <v>32</v>
       </c>
@@ -3171,16 +4757,19 @@
       <c r="Q41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row ht="76.5" r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42"/>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
@@ -3190,12 +4779,12 @@
       <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="F42"/>
+      <c r="G42"/>
       <c r="H42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42"/>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3232,12 +4821,15 @@
       <c r="U42" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row ht="51" r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43"/>
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +4839,7 @@
       <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43"/>
       <c r="G43" s="3" t="s">
         <v>32</v>
       </c>
@@ -3293,12 +4885,15 @@
       <c r="U43" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row ht="38.25" r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44"/>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
@@ -3308,7 +4903,7 @@
       <c r="E44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44"/>
       <c r="G44" s="3" t="s">
         <v>32</v>
       </c>
@@ -3342,16 +4937,19 @@
       <c r="Q44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-    </row>
-    <row r="45" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row ht="38.25" r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45"/>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
@@ -3361,7 +4959,7 @@
       <c r="E45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45"/>
       <c r="G45" s="3" t="s">
         <v>32</v>
       </c>
@@ -3395,16 +4993,19 @@
       <c r="Q45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-    </row>
-    <row r="46" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row ht="76.5" r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46"/>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
@@ -3414,12 +5015,12 @@
       <c r="E46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="F46"/>
+      <c r="G46"/>
       <c r="H46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46"/>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3456,12 +5057,15 @@
       <c r="U46" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row ht="51" r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47"/>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3471,7 +5075,7 @@
       <c r="E47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47"/>
       <c r="G47" s="3" t="s">
         <v>32</v>
       </c>
@@ -3517,12 +5121,15 @@
       <c r="U47" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row ht="38.25" r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48"/>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
@@ -3532,7 +5139,7 @@
       <c r="E48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48"/>
       <c r="G48" s="3" t="s">
         <v>32</v>
       </c>
@@ -3566,16 +5173,19 @@
       <c r="Q48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-    </row>
-    <row r="49" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row ht="38.25" r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49"/>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
@@ -3585,7 +5195,7 @@
       <c r="E49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49"/>
       <c r="G49" s="3" t="s">
         <v>32</v>
       </c>
@@ -3619,16 +5229,19 @@
       <c r="Q49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-    </row>
-    <row r="50" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="76.5" r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50"/>
       <c r="C50" s="3" t="s">
         <v>9</v>
       </c>
@@ -3638,12 +5251,12 @@
       <c r="E50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="F50"/>
+      <c r="G50"/>
       <c r="H50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I50" s="4"/>
+      <c r="I50"/>
       <c r="J50" s="3" t="s">
         <v>4</v>
       </c>
@@ -3680,12 +5293,15 @@
       <c r="U50" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="51" r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51"/>
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
@@ -3695,7 +5311,7 @@
       <c r="E51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51"/>
       <c r="G51" s="3" t="s">
         <v>32</v>
       </c>
@@ -3741,12 +5357,15 @@
       <c r="U51" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row ht="38.25" r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52"/>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
@@ -3756,7 +5375,7 @@
       <c r="E52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52"/>
       <c r="G52" s="3" t="s">
         <v>32</v>
       </c>
@@ -3790,16 +5409,19 @@
       <c r="Q52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-    </row>
-    <row r="53" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row ht="38.25" r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53"/>
       <c r="C53" s="3" t="s">
         <v>9</v>
       </c>
@@ -3809,7 +5431,7 @@
       <c r="E53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53"/>
       <c r="G53" s="3" t="s">
         <v>32</v>
       </c>
@@ -3843,16 +5465,19 @@
       <c r="Q53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-    </row>
-    <row r="54" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row ht="76.5" r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54"/>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
@@ -3862,12 +5487,12 @@
       <c r="E54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="F54"/>
+      <c r="G54"/>
       <c r="H54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I54" s="4"/>
+      <c r="I54"/>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3904,12 +5529,15 @@
       <c r="U54" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row ht="51" r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55"/>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
@@ -3919,7 +5547,7 @@
       <c r="E55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55"/>
       <c r="G55" s="3" t="s">
         <v>32</v>
       </c>
@@ -3965,12 +5593,15 @@
       <c r="U55" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row ht="38.25" r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56"/>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +5611,7 @@
       <c r="E56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56"/>
       <c r="G56" s="3" t="s">
         <v>32</v>
       </c>
@@ -4014,16 +5645,19 @@
       <c r="Q56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-    </row>
-    <row r="57" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row ht="38.25" r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57"/>
       <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
@@ -4033,7 +5667,7 @@
       <c r="E57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57"/>
       <c r="G57" s="3" t="s">
         <v>32</v>
       </c>
@@ -4067,16 +5701,19 @@
       <c r="Q57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-    </row>
-    <row r="58" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row ht="76.5" r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58"/>
       <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
@@ -4086,12 +5723,12 @@
       <c r="E58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="F58"/>
+      <c r="G58"/>
       <c r="H58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I58" s="4"/>
+      <c r="I58"/>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4128,12 +5765,15 @@
       <c r="U58" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row ht="51" r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59"/>
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
@@ -4143,7 +5783,7 @@
       <c r="E59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="3"/>
+      <c r="F59"/>
       <c r="G59" s="3" t="s">
         <v>32</v>
       </c>
@@ -4189,12 +5829,15 @@
       <c r="U59" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row ht="38.25" r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60"/>
       <c r="C60" s="3" t="s">
         <v>9</v>
       </c>
@@ -4204,7 +5847,7 @@
       <c r="E60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="3"/>
+      <c r="F60"/>
       <c r="G60" s="3" t="s">
         <v>32</v>
       </c>
@@ -4238,16 +5881,19 @@
       <c r="Q60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-    </row>
-    <row r="61" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row ht="38.25" r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61"/>
       <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
@@ -4257,7 +5903,7 @@
       <c r="E61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61"/>
       <c r="G61" s="3" t="s">
         <v>32</v>
       </c>
@@ -4291,16 +5937,19 @@
       <c r="Q61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-    </row>
-    <row r="62" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row ht="76.5" r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62"/>
       <c r="C62" s="3" t="s">
         <v>9</v>
       </c>
@@ -4310,12 +5959,12 @@
       <c r="E62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="F62"/>
+      <c r="G62"/>
       <c r="H62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62"/>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4352,12 +6001,15 @@
       <c r="U62" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row ht="51" r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63"/>
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
@@ -4367,7 +6019,7 @@
       <c r="E63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63"/>
       <c r="G63" s="3" t="s">
         <v>32</v>
       </c>
@@ -4413,12 +6065,15 @@
       <c r="U63" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row ht="38.25" r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64"/>
       <c r="C64" s="3" t="s">
         <v>9</v>
       </c>
@@ -4428,7 +6083,7 @@
       <c r="E64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F64"/>
       <c r="G64" s="3" t="s">
         <v>32</v>
       </c>
@@ -4462,16 +6117,19 @@
       <c r="Q64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-    </row>
-    <row r="65" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row ht="38.25" r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65"/>
       <c r="C65" s="3" t="s">
         <v>9</v>
       </c>
@@ -4481,7 +6139,7 @@
       <c r="E65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65"/>
       <c r="G65" s="3" t="s">
         <v>32</v>
       </c>
@@ -4515,16 +6173,19 @@
       <c r="Q65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row ht="76.5" r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66"/>
       <c r="C66" s="3" t="s">
         <v>9</v>
       </c>
@@ -4534,12 +6195,12 @@
       <c r="E66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="F66"/>
+      <c r="G66"/>
       <c r="H66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66"/>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4576,12 +6237,15 @@
       <c r="U66" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row ht="51" r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67"/>
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
@@ -4591,7 +6255,7 @@
       <c r="E67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67"/>
       <c r="G67" s="3" t="s">
         <v>32</v>
       </c>
@@ -4637,12 +6301,15 @@
       <c r="U67" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row ht="38.25" r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68"/>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
@@ -4652,7 +6319,7 @@
       <c r="E68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68"/>
       <c r="G68" s="3" t="s">
         <v>32</v>
       </c>
@@ -4686,16 +6353,19 @@
       <c r="Q68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-    </row>
-    <row r="69" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row ht="38.25" r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69"/>
       <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
@@ -4705,7 +6375,7 @@
       <c r="E69" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69"/>
       <c r="G69" s="3" t="s">
         <v>32</v>
       </c>
@@ -4739,16 +6409,19 @@
       <c r="Q69" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-    </row>
-    <row r="70" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row ht="76.5" r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70"/>
       <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
@@ -4758,12 +6431,12 @@
       <c r="E70" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="F70"/>
+      <c r="G70"/>
       <c r="H70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70"/>
       <c r="J70" s="3" t="s">
         <v>4</v>
       </c>
@@ -4800,12 +6473,15 @@
       <c r="U70" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row ht="51" r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71"/>
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
@@ -4815,7 +6491,7 @@
       <c r="E71" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71"/>
       <c r="G71" s="3" t="s">
         <v>32</v>
       </c>
@@ -4861,12 +6537,15 @@
       <c r="U71" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="V71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row ht="38.25" r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72"/>
       <c r="C72" s="3" t="s">
         <v>9</v>
       </c>
@@ -4876,7 +6555,7 @@
       <c r="E72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72"/>
       <c r="G72" s="3" t="s">
         <v>32</v>
       </c>
@@ -4910,16 +6589,19 @@
       <c r="Q72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-    </row>
-    <row r="73" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row ht="38.25" r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73"/>
       <c r="C73" s="3" t="s">
         <v>9</v>
       </c>
@@ -4929,7 +6611,7 @@
       <c r="E73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73"/>
       <c r="G73" s="3" t="s">
         <v>32</v>
       </c>
@@ -4963,16 +6645,19 @@
       <c r="Q73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-    </row>
-    <row r="74" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row ht="76.5" r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74"/>
       <c r="C74" s="3" t="s">
         <v>9</v>
       </c>
@@ -4982,12 +6667,12 @@
       <c r="E74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="F74"/>
+      <c r="G74"/>
       <c r="H74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="4"/>
+      <c r="I74"/>
       <c r="J74" s="3" t="s">
         <v>4</v>
       </c>
@@ -5024,12 +6709,15 @@
       <c r="U74" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row ht="76.5" r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75"/>
       <c r="C75" s="3" t="s">
         <v>9</v>
       </c>
@@ -5039,12 +6727,12 @@
       <c r="E75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="F75"/>
+      <c r="G75"/>
       <c r="H75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I75" s="4"/>
+      <c r="I75"/>
       <c r="J75" s="3" t="s">
         <v>4</v>
       </c>
@@ -5081,12 +6769,15 @@
       <c r="U75" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row ht="76.5" r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76"/>
       <c r="C76" s="3" t="s">
         <v>9</v>
       </c>
@@ -5096,12 +6787,12 @@
       <c r="E76" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76"/>
+      <c r="G76"/>
       <c r="H76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I76" s="4"/>
+      <c r="I76"/>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5138,12 +6829,15 @@
       <c r="U76" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="76.5" r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77"/>
       <c r="C77" s="3" t="s">
         <v>9</v>
       </c>
@@ -5153,12 +6847,12 @@
       <c r="E77" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="F77"/>
+      <c r="G77"/>
       <c r="H77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="4"/>
+      <c r="I77"/>
       <c r="J77" s="3" t="s">
         <v>4</v>
       </c>
@@ -5195,12 +6889,15 @@
       <c r="U77" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row ht="76.5" r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78"/>
       <c r="C78" s="5" t="s">
         <v>33</v>
       </c>
@@ -5210,12 +6907,12 @@
       <c r="E78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="F78"/>
+      <c r="G78"/>
       <c r="H78" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I78" s="4"/>
+      <c r="I78"/>
       <c r="J78" s="4" t="s">
         <v>4</v>
       </c>
@@ -5252,20 +6949,23 @@
       <c r="U78" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="V78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row ht="51" r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79"/>
       <c r="C79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="E79"/>
+      <c r="F79"/>
       <c r="G79" s="3" t="s">
         <v>32</v>
       </c>
@@ -5311,12 +7011,15 @@
       <c r="U79" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V79" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row ht="76.5" r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80"/>
       <c r="C80" s="5" t="s">
         <v>9</v>
       </c>
@@ -5329,11 +7032,11 @@
       <c r="F80" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G80" s="3"/>
+      <c r="G80"/>
       <c r="H80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I80" s="4"/>
+      <c r="I80"/>
       <c r="J80" s="4" t="s">
         <v>4</v>
       </c>
@@ -5370,25 +7073,28 @@
       <c r="U80" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row ht="76.5" r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81"/>
       <c r="C81" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
       <c r="H81" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I81" s="4"/>
+      <c r="I81"/>
       <c r="J81" s="4" t="s">
         <v>4</v>
       </c>
@@ -5425,12 +7131,15 @@
       <c r="U81" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row ht="76.5" r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82"/>
       <c r="C82" s="5" t="s">
         <v>33</v>
       </c>
@@ -5440,12 +7149,12 @@
       <c r="E82" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="F82"/>
+      <c r="G82"/>
       <c r="H82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I82" s="4"/>
+      <c r="I82"/>
       <c r="J82" s="4" t="s">
         <v>4</v>
       </c>
@@ -5482,27 +7191,30 @@
       <c r="U82" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row ht="76.5" r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83"/>
       <c r="C83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83"/>
       <c r="F83" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83"/>
       <c r="H83" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I83" s="4"/>
+      <c r="I83"/>
       <c r="J83" s="4" t="s">
         <v>4</v>
       </c>
@@ -5539,25 +7251,28 @@
       <c r="U83" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="V83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row ht="76.5" r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84"/>
       <c r="C84" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
       <c r="H84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I84" s="4"/>
+      <c r="I84"/>
       <c r="J84" s="4" t="s">
         <v>4</v>
       </c>
@@ -5594,10 +7309,13 @@
       <c r="U84" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="V84" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U84"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>